--- a/SuppXLS/Scen_DemProj_DTCAR.xlsx
+++ b/SuppXLS/Scen_DemProj_DTCAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_models\DemoS_009\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Times_Training\VEDA09\Adv_Model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F2314D-FC79-42DF-883C-94CB570E18A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AE4E88-ED36-44C1-878C-A9B4A044BF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11505" yWindow="1995" windowWidth="17295" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45960" yWindow="465" windowWidth="25155" windowHeight="14160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY_Data" sheetId="6" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
   <si>
     <t>Year</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>BASE</t>
+  </si>
+  <si>
+    <t>DTPUB</t>
   </si>
 </sst>
 </file>
@@ -158,6 +161,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -278,7 +282,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -298,9 +302,10 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="40% - Accent3" xfId="1" builtinId="39"/>
+    <cellStyle name="40% - Énfasis3" xfId="1" builtinId="39"/>
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -550,7 +555,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -870,15 +875,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J4"/>
+  <dimension ref="B2:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -944,6 +950,29 @@
       </c>
       <c r="J4" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>2005</v>
+      </c>
+      <c r="H5">
+        <v>3100.59695159375</v>
+      </c>
+      <c r="I5">
+        <v>3067.06485564375</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -955,20 +984,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1103,6 +1132,66 @@
       </c>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>2006</v>
+      </c>
+      <c r="F8" s="13">
+        <f>BY_Data!$H$4*(1+$K$4)^(E8-2005)</f>
+        <v>3162.608890625625</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>2010</v>
+      </c>
+      <c r="F9" s="13">
+        <f>BY_Data!$H$4*(1+$K$4)^(E9-2005)</f>
+        <v>3423.309572715099</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>2015</v>
+      </c>
+      <c r="F10" s="13">
+        <f>BY_Data!$H$4*(1+$K$4)^(E10-2005)</f>
+        <v>3779.6103826455351</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>2020</v>
+      </c>
+      <c r="F11" s="13">
+        <f>BY_Data!$H$4*(1+$K$4)^(E11-2005)</f>
+        <v>4172.9952670543407</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
